--- a/partlist/sigma_mix_partlist.xlsx
+++ b/partlist/sigma_mix_partlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="191">
   <si>
     <t>Value</t>
   </si>
@@ -146,431 +146,619 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>490-1662-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>490-1615-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>718-1313-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>490-3608-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CP-1435-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CP-1419-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CP-1420-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>490-14396-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LNJ337W83RADKR-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LNJ837W83RADKR-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LNJ937W8CRADKR-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ADM811TARTZ-REEL7CT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MCP1726-3302E/SN-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MCP73871-2AAI/ML-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SW426-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ZXTP25040DFHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>EG4328-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SW1195-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MHC10K-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P56.2KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P49.9KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P8.06KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P1.00KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P100HCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P100KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CP-202B-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Bluetooth Module</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>BGM113</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DC Jack</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>White</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Red &amp; White</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Resister</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ferrite Bead</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IC</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DSP Processor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ADAU1701</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LQFP48</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ADM811</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SOT192</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage Regulator </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Battery Management</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Transistor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PNP</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SOT23</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Crystal</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4-SMD</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Module</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Through Hole</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Through Hole</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2x5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Rocker</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tactile</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RCA Jack x1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RCA Jack x2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2x3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SMD</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2x5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Thick Film</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Thick Film</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Thick Film</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ceramic SMD</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ceramic</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Manufactuer</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Silicon Labs</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Microchip</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Abracon</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Panasonic</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Panasonic</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Murata</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Murata</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Murata</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Vishay Sprague</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JST</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Omron</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Omron</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>E-Switch</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CUI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CUI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CUI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>600ohm @ 100MHz</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>40V 3A</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4 SPST 25mA 24V</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DIP</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SPDT 3A 28V</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SPST-NO</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2POS SMD</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2.5mm</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Capacitor</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>490-3905-1-ND</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>490-1662-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>490-1615-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>718-1313-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>490-3608-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CP-1435-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CP-1419-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CP-1420-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>490-14396-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LNJ337W83RADKR-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LNJ837W83RADKR-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LNJ937W8CRADKR-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>green</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>orange</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>blue</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ADM811TARTZ-REEL7CT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>MCP1726-3302E/SN-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>MCP73871-2AAI/ML-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SW426-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ZXTP25040DFHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>EG4328-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SW1195-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>MHC10K-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P56.2KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P49.9KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> P18.0KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> P10.0KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P8.06KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P1.00KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> P475HCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P100HCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>P100KHCT-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CP-202B-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Bluetooth Module</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>BGM113</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>DC Jack</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Red</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>White</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Red &amp; White</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Resister</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Ferrite Bead</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>IC</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>DSP Processor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ADAU1701</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LQFP48</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ADM811</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SOT192</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Voltage Regulator </t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Battery Management</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Reset</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Transistor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>PNP</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SOT23</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Crystal</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>300-8198-1-ND</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>4-SMD</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Module</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Through Hole</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Switch</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Through Hole</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2x5</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Rocker</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Tactile</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>RCA Jack x1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>RCA Jack x2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2x3</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SMD</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Header</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2x5</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Thick Film</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Thick Film</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Thick Film</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Num</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Ceramic SMD</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Ceramic</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Manufactuer</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Silicon Labs</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Microchip</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Abracon</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Panasonic</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Panasonic</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Murata</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Murata</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Murata</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Vishay Sprague</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Diodes Incorporated</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>JST</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Omron</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Omron</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>E-Switch</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CUI</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CUI</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CUI</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>600ohm @ 100MHz</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>40V 3A</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>4 SPST 25mA 24V</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>DIP</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SPDT 3A 28V</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>SPST-NO</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2POS SMD</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2.5mm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Capacitor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Category</t>
+    <t>IC1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>U4, U5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>X1, X2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>X3, X4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>U2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>U1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>U3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R28, R29</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R30, R31</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R2, R3, R4, R6, R26, R27</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R18, R19, R20, R21</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R1, R5, R12, R13, R14, R15, R16, R17, R22, R23</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R24, R25</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R8, R9, R10, R11, R40, R41, R42, R43, R44, R45, R46, R47</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R32, R33, R34, R35, R36, R37, R38, R39</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C30, C31, C32, C33</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C9, C10, C11, C12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C64, C65, C66, C67, C68, C69, C70, C71</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C7, C8, C13, C20, C21, C22, C23, C26, C27, C28, C29, C34, C35, C38, C39, C40, C41, C44, C45, C48, C49, C52, C53</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C1, C3, C4, C5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tantalum</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>10uF</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Rohm</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C18, C19, C24, C25, C36, C37</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C14, C15, C16, C17, C42, C43, C46, C47, C50, C51, C54, C55</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>511-1447-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C56, C57, C58, C59, C60, C61, C62, C63</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>L1, L2, L3, L4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>T1, T2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LED2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LED3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SW1, SW2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CN1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J3, J5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J2, J4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J6, J7, J8, J9</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JP1, JP2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>SV1, SV2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Part No.</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>535-10902-1-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P475HCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P10.0KHCT-ND</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>P18.0KHCT-ND</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1209,7 +1397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,9 +1417,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,16 +1425,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1607,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1621,107 +1821,120 @@
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="7" max="7" width="98.125" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>114</v>
+    <row r="2" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>115</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>116</v>
+      <c r="C4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="G4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>117</v>
+      <c r="D5" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>21</v>
@@ -1729,20 +1942,23 @@
       <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="G5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>117</v>
+      <c r="D6" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -1750,45 +1966,51 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="G6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>118</v>
+      <c r="D7" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="G7" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="8">
         <v>100</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>119</v>
+      <c r="D8" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="E8" s="1">
         <v>1608</v>
@@ -1796,20 +2018,23 @@
       <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="G8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="7">
         <v>475</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>119</v>
+      <c r="D9" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E9" s="5">
         <v>1608</v>
@@ -1817,20 +2042,23 @@
       <c r="F9" s="6">
         <v>2</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="G9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>120</v>
+      <c r="D10" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="E10" s="1">
         <v>1608</v>
@@ -1838,20 +2066,23 @@
       <c r="F10" s="2">
         <v>6</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="G10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>119</v>
+      <c r="D11" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E11" s="5">
         <v>1608</v>
@@ -1859,20 +2090,23 @@
       <c r="F11" s="6">
         <v>4</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="G11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>119</v>
+      <c r="D12" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="E12" s="1">
         <v>1608</v>
@@ -1880,20 +2114,23 @@
       <c r="F12" s="2">
         <v>10</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="G12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>119</v>
+      <c r="D13" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E13" s="5">
         <v>1608</v>
@@ -1901,20 +2138,23 @@
       <c r="F13" s="6">
         <v>2</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="G13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>119</v>
+      <c r="D14" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="E14" s="1">
         <v>1608</v>
@@ -1922,20 +2162,23 @@
       <c r="F14" s="2">
         <v>12</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="G14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>119</v>
+      <c r="D15" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E15" s="5">
         <v>1608</v>
@@ -1943,20 +2186,23 @@
       <c r="F15" s="6">
         <v>8</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="G15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>119</v>
+      <c r="D16" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="E16" s="1">
         <v>1608</v>
@@ -1964,22 +2210,25 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="G16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>123</v>
+      <c r="D17" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="E17" s="5">
         <v>2012</v>
@@ -1987,20 +2236,23 @@
       <c r="F17" s="6">
         <v>4</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
+      <c r="G17" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>121</v>
+      <c r="D18" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="E18" s="1">
         <v>2012</v>
@@ -2008,20 +2260,23 @@
       <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
+      <c r="G18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>122</v>
+      <c r="D19" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="E19" s="5">
         <v>2012</v>
@@ -2029,20 +2284,23 @@
       <c r="F19" s="6">
         <v>1</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>122</v>
+      <c r="D20" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E20" s="1">
         <v>2012</v>
@@ -2050,20 +2308,23 @@
       <c r="F20" s="2">
         <v>8</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
+      <c r="G20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>121</v>
+      <c r="D21" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="E21" s="5">
         <v>2012</v>
@@ -2071,20 +2332,23 @@
       <c r="F21" s="6">
         <v>23</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>122</v>
+      <c r="D22" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E22" s="1">
         <v>2012</v>
@@ -2092,20 +2356,23 @@
       <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>121</v>
+      <c r="D23" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="E23" s="5">
         <v>2012</v>
@@ -2113,125 +2380,145 @@
       <c r="F23" s="6">
         <v>4</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>122</v>
+      <c r="D24" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E24" s="1">
         <v>2012</v>
       </c>
       <c r="F24" s="2">
-        <v>18</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="6">
+        <v>6</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="12">
         <v>3528</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="13">
         <v>8</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="G26" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="5">
         <v>1608</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="6">
         <v>4</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="13">
         <v>2</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1608</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>120</v>
+      <c r="G28" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="E29" s="5">
         <v>1608</v>
@@ -2239,253 +2526,314 @@
       <c r="F29" s="6">
         <v>1</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1608</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1608</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1608</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="6">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="13">
         <v>2</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>95</v>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="F33" s="6">
         <v>1</v>
       </c>
-      <c r="G33" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="9" t="s">
+      <c r="G33" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
-        <v>95</v>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F35" s="6">
         <v>1</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>95</v>
+      <c r="D37" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="F37" s="6">
         <v>2</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="G37" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="13">
+        <v>2</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="6">
         <v>4</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="G39" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="13">
         <v>2</v>
       </c>
-      <c r="G39" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9" t="s">
+      <c r="G40" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="6">
+        <v>2</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="16">
         <v>2</v>
       </c>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="7">
-        <v>2</v>
-      </c>
-      <c r="G41" s="13"/>
+      <c r="G42" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" s="17"/>
     </row>
   </sheetData>
   <sortState ref="A8:E16">
     <sortCondition ref="C8:C16"/>
   </sortState>
   <phoneticPr fontId="18"/>
-  <pageMargins left="0.43307086614173229" right="0.39370078740157483" top="0.70866141732283472" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.43307086614173229" right="0.39370078740157483" top="0.53" bottom="0.2" header="0.2" footer="0.2"/>
+  <pageSetup paperSize="154" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;18SigmaMIX PARTLIST&amp;R2017/04/20</oddHeader>
   </headerFooter>
